--- a/pre-processing/encoded_data.xlsx
+++ b/pre-processing/encoded_data.xlsx
@@ -6910,1498 +6910,1498 @@
     <t>VND</t>
   </si>
   <si>
-    <t>images/phone/product_270975124.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_184059211.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277007015.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_275510578.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276515327.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_278098703.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277777809.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_125182567.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_35278834.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276109904.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276178085.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_163914808.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_127695415.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_262792654.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_197214029.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_117987260.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_203661802.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_271966786.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_201067649.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_278006178.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_217706932.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276614493.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_14585382.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_278219968.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_275716541.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_271967379.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_276376478.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_204237269.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_66758390.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_189371737.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276110349.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_276857147.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276110023.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_188565088.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276389560.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_106641569.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_114789403.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277619147.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277574339.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_73204703.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_21430781.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_230155305.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_181452535.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_252586291.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_271966725.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_270977170.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_273474185.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_196201409.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_247421211.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276110276.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_270977143.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274184675.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_252006029.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_212934661.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_205985292.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274879959.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_57071523.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_263972675.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277972475.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_64672917.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_203898270.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277972387.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_131416196.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_164213695.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277930407.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_270545009.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275544310.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_10716498.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_170165701.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_274704359.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_194130039.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_278237932.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_194067352.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_48576455.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_272030250.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274069561.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_272222033.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277980303.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_153544569.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275959921.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_273084814.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275513834.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_271705499.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274065704.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_127600345.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_252390163.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_252963851.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_272268455.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_269944956.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_142796515.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_113427448.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_55508641.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_47868431.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_104070115.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_272967613.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_270977103.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275257961.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_194121937.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_164318603.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_229766303.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_171232872.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_17539156.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_104180.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_154259057.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_133876927.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_193105103.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_273932705.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_274405521.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_273644429.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_262891821.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276386509.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_181927774.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_274544634.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_271248861.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_41319582.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274728425.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_47099726.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274567496.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_274943200.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_276862124.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_271128271.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277601288.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275467638.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_165345530.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_6610413.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_241639907.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_278138258.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_278000720.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276448920.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_242482796.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277614251.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_273990229.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_187642259.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_174896487.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_273328383.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274954348.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277311630.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_276021394.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276075466.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_263987622.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274184765.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276802409.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277356193.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277707642.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277704510.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277651890.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277944334.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277356031.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277607297.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276500230.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276944868.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_272366633.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_273054021.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_117916066.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_275913708.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_274191773.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276489194.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_186103396.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277417151.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277175913.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277369759.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_95469367.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277381589.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_274516951.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_176167334.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274724794.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275856061.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277360579.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275511061.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277063012.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276274790.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277465334.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_135839773.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_278138206.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274179036.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_191320811.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276253314.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275254778.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_2013189.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276747066.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277164932.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276099688.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_95866327.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_193102256.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_253489396.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_241638318.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276539826.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277737595.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_76062253.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_187036472.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_172369953.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277421606.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_278149668.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_274408482.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_273602049.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275918344.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277771239.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_263596152.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_165025828.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277068413.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276856800.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_278067024.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276251942.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277468981.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_50322624.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277615987.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_145717791.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_88191430.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_108379905.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276253446.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_222452404.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_82861299.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_129078637.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277164948.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_73681047.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_57900120.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275646608.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_23142193.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277512620.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275194363.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274870710.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277014407.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_75301142.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276944892.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_274847176.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277015260.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276280160.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_273951675.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_164285225.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276639232.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277965399.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_108924121.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_67982880.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276410628.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_270964237.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_276711006.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_272178556.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_273446601.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277737629.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276566181.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276465090.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277356246.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277582223.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275761136.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_152521511.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277409699.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_11251770.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_273026293.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_118537278.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_271234773.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_273959250.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277827500.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_58393093.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_197883135.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277820438.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277437876.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276268195.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277548884.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277470272.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_274165805.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_278219887.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277581685.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277812880.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277030799.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_271954384.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276281988.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_271515346.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277854019.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_123926245.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_77712221.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277971781.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276314708.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275326681.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_253502839.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277575237.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_207872108.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276075423.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_178093791.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_178062046.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277991140.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_92504473.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_90655703.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_72797571.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276089188.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276862301.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276861683.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_248208320.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276861471.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276379164.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_2003079.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_49089541.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_246208809.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_248237801.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_263584620.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_272286025.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276062770.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274843351.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274870762.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275815779.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_274046847.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_248585546.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277175955.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_13331940.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_278149617.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275855621.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277041250.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274877090.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_176058957.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274876803.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276032905.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275803796.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275603494.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275602893.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275249107.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275245456.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275244717.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275020293.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274969952.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274843323.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_189176771.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275019168.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275245028.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275249046.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276606018.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275244939.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275270303.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275655645.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275603326.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275805126.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274880735.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276412014.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275244561.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276378910.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_184077032.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274843293.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277497107.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277646748.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277512611.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_202904152.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_277521161.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275130480.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276925932.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275020992.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275655333.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_99350407.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276415813.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277989405.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275269812.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277575279.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275603347.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275987600.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276252722.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277485884.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276931435.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277429931.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277976029.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277988890.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275603123.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276860956.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_278077327.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276621107.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_278220734.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276606293.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276387015.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_271829222.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276621654.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276921311.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_270906792.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277738691.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_214863351.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_275338696.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277534704.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_275773160.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276582252.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277912853.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_57523356.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277490201.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276046675.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275406083.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275262949.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277311651.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_275855728.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078286.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278226869.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278226504.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078317.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078298.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277811118.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078281.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078278.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278076611.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278076601.jpg</t>
-  </si>
-  <si>
-    <t>images/camera/product_277827436.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_205303070.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_276046012.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_214863371.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_210138061.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_225363237.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_160946349.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275850187.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_205305968.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_278077419.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278229740.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277989480.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_271949876.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_273239856.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_273634022.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_274775419.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275381290.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277971948.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275516477.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275852844.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278076596.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078315.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278226626.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278227010.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278304303.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278304363.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278304793.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278454662.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_92621126.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_155974507.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_158583026.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_158583221.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_189572199.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_253498992.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_189572223.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_198437064.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_197920267.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_247667322.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_225940640.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278078311.jpg</t>
-  </si>
-  <si>
-    <t>images/speaker/product_241635069.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278071899.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275154280.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275721993.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275746519.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275850110.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277912721.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276319244.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275854376.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276365829.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276366080.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_276362981.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277912715.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276366329.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276603695.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277361271.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277363548.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275245427.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_274870404.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277672516.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277466579.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277462473.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276366221.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277446629.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277065642.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_252566338.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_277988926.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277991695.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_274643985.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275247634.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_277039291.jpg</t>
-  </si>
-  <si>
-    <t>images/phone/product_276305472.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275382529.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_273647623.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_214863401.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_273231142.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_206840788.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_178058676.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_214863343.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_214863390.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_225195387.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_225195616.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_247656002.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_247666447.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_248830867.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_278076593.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_252566514.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_273949286.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_274378954.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_274419342.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275269577.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275382480.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_275854386.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276366073.jpg</t>
-  </si>
-  <si>
-    <t>images/tv/product_275268806.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276366370.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_276370396.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277361314.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277363552.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277451016.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_272828266.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277912740.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_206307542.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_277912717.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_225934432.jpg</t>
-  </si>
-  <si>
-    <t>images/laptop/product_160445997.jpg</t>
+    <t>images_png/phone/phone_270975124.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_184059211.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277007015.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_275510578.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276515327.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_278098703.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277777809.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_125182567.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_35278834.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276109904.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276178085.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_163914808.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_127695415.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_262792654.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_197214029.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_117987260.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_203661802.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_271966786.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_201067649.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278006178.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_217706932.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276614493.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_14585382.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_278219968.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_275716541.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_271967379.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_276376478.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_204237269.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_66758390.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_189371737.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276110349.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_276857147.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276110023.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_188565088.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276389560.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_106641569.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_114789403.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277619147.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277574339.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_73204703.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_21430781.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_230155305.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_181452535.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_252586291.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_271966725.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270977170.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273474185.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_196201409.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_247421211.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276110276.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270977143.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274184675.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_252006029.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_212934661.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_205985292.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274879959.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_57071523.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_263972675.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277972475.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_64672917.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_203898270.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277972387.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_131416196.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_164213695.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277930407.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270545009.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275544310.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_10716498.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_170165701.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_274704359.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_194130039.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_278237932.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_194067352.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_48576455.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_272030250.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274069561.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_272222033.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277980303.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_153544569.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275959921.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_273084814.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275513834.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_271705499.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274065704.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_127600345.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_252390163.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_252963851.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_272268455.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_269944956.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_142796515.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_113427448.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_55508641.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_47868431.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_104070115.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_272967613.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270977103.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275257961.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_194121937.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_164318603.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_229766303.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_171232872.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_17539156.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_104180.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_154259057.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_133876927.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_193105103.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273932705.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_274405521.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273644429.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_262891821.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276386509.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_181927774.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_274544634.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_271248861.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_41319582.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274728425.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_47099726.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274567496.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_274943200.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_276862124.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_271128271.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277601288.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275467638.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_165345530.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_6610413.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_241639907.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278138258.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_278000720.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276448920.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_242482796.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277614251.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_273990229.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_187642259.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_174896487.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_273328383.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274954348.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277311630.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_276021394.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276075466.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_263987622.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274184765.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276802409.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277356193.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277707642.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277704510.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277651890.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277944334.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277356031.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277607297.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276500230.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276944868.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_272366633.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_273054021.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_117916066.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_275913708.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_274191773.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276489194.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_186103396.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277417151.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277175913.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277369759.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_95469367.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277381589.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_274516951.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_176167334.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274724794.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275856061.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277360579.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275511061.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277063012.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276274790.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277465334.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_135839773.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278138206.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274179036.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_191320811.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276253314.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275254778.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_2013189.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276747066.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277164932.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276099688.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_95866327.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_193102256.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_253489396.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_241638318.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276539826.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277737595.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_76062253.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_187036472.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_172369953.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277421606.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_278149668.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_274408482.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_273602049.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275918344.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277771239.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_263596152.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_165025828.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277068413.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276856800.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_278067024.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276251942.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277468981.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_50322624.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277615987.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_145717791.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_88191430.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_108379905.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276253446.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_222452404.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_82861299.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_129078637.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277164948.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_73681047.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_57900120.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275646608.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_23142193.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277512620.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275194363.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274870710.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277014407.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_75301142.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276944892.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274847176.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277015260.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276280160.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273951675.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_164285225.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276639232.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277965399.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_108924121.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_67982880.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276410628.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270964237.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_276711006.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_272178556.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273446601.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277737629.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276566181.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276465090.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277356246.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277582223.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275761136.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_152521511.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277409699.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_11251770.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273026293.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_118537278.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_271234773.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_273959250.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277827500.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_58393093.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_197883135.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277820438.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277437876.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276268195.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277548884.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277470272.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_274165805.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_278219887.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277581685.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277812880.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277030799.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_271954384.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276281988.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_271515346.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277854019.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_123926245.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_77712221.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277971781.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276314708.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275326681.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_253502839.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277575237.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_207872108.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276075423.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_178093791.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_178062046.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277991140.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_92504473.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_90655703.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_72797571.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276089188.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276862301.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276861683.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_248208320.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276861471.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276379164.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_2003079.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_49089541.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_246208809.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_248237801.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_263584620.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_272286025.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276062770.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274843351.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274870762.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275815779.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_274046847.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_248585546.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277175955.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_13331940.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_278149617.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275855621.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277041250.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274877090.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_176058957.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274876803.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276032905.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275803796.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275603494.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275602893.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275249107.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275245456.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275244717.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275020293.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274969952.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274843323.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_189176771.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275019168.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275245028.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275249046.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276606018.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275244939.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275270303.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275655645.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275603326.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275805126.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274880735.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276412014.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275244561.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276378910.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_184077032.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274843293.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277497107.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277646748.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277512611.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_202904152.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_277521161.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275130480.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276925932.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275020992.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275655333.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_99350407.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276415813.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277989405.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275269812.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277575279.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275603347.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275987600.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276252722.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277485884.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276931435.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277429931.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277976029.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277988890.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275603123.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276860956.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278077327.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276621107.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278220734.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276606293.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276387015.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_271829222.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276621654.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276921311.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270906792.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277738691.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863351.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_275338696.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277534704.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_275773160.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276582252.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912853.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_57523356.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277490201.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276046675.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275406083.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275262949.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277311651.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_275855728.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078286.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278226869.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278226504.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078317.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078298.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277811118.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078281.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078278.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278076611.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278076601.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277827436.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_205303070.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276046012.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863371.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_210138061.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225363237.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_160946349.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275850187.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_205305968.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278077419.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278229740.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277989480.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_271949876.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273239856.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273634022.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_274775419.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275381290.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277971948.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275516477.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275852844.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278076596.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078315.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278226626.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278227010.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278304303.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278304363.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278304793.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278454662.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_92621126.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_155974507.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_158583026.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_158583221.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_189572199.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_253498992.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_189572223.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_198437064.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_197920267.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_247667322.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225940640.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078311.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_241635069.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278071899.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275154280.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275721993.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275746519.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275850110.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912721.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276319244.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275854376.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276365829.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366080.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276362981.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912715.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366329.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276603695.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277361271.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277363548.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275245427.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274870404.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277672516.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277466579.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277462473.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366221.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277446629.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277065642.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_252566338.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277988926.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277991695.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_274643985.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275247634.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277039291.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276305472.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275382529.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273647623.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863401.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273231142.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_206840788.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_178058676.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863343.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863390.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225195387.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225195616.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_247656002.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_247666447.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_248830867.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278076593.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_252566514.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273949286.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_274378954.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_274419342.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275269577.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275382480.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275854386.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366073.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275268806.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366370.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276370396.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277361314.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277363552.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277451016.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_272828266.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912740.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_206307542.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912717.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225934432.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_160445997.png</t>
   </si>
   <si>
     <t>phone</t>
